--- a/CTCF_Analysis_NewPeakCalling/Proportion_Overlap_Tables/LTC42_NA_P.xlsx
+++ b/CTCF_Analysis_NewPeakCalling/Proportion_Overlap_Tables/LTC42_NA_P.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6450288305802924</v>
+        <v>0.4863936160317922</v>
       </c>
       <c r="C2">
-        <v>58710230</v>
+        <v>80076088</v>
       </c>
       <c r="D2">
-        <v>11308652</v>
+        <v>19985378</v>
       </c>
       <c r="E2">
-        <v>105373</v>
+        <v>96225</v>
       </c>
       <c r="F2">
-        <v>67.28668634280129</v>
+        <v>60.90413094310211</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4658620105664779</v>
+        <v>0.6750237307288024</v>
       </c>
       <c r="C3">
-        <v>81289717</v>
+        <v>57699450</v>
       </c>
       <c r="D3">
-        <v>23221054</v>
+        <v>9602787</v>
       </c>
       <c r="E3">
-        <v>122086</v>
+        <v>82284</v>
       </c>
       <c r="F3">
-        <v>58.07545500712612</v>
+        <v>71.22283797579117</v>
       </c>
     </row>
   </sheetData>
